--- a/src/sendCrypto.xlsx
+++ b/src/sendCrypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mehmettas/Documents/Belgeler - MacBook Pro/dockerSand/cryptoJS/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF48091-0E87-7244-ADC3-D763ACD275CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3515BF1-FBC1-0743-BB73-9C18435890B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16420" xr2:uid="{6960E430-0BCE-2E41-B842-CC160AD8406D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>toAddress</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>coin</t>
-  </si>
-  <si>
-    <t>wallet</t>
   </si>
 </sst>
 </file>
@@ -389,15 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED04A16-B52D-884E-A399-D4E1B765933B}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,9 +402,6 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/src/sendCrypto.xlsx
+++ b/src/sendCrypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mehmettas/Documents/Belgeler - MacBook Pro/dockerSand/cryptoJS/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3515BF1-FBC1-0743-BB73-9C18435890B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2F9A41-6B11-CC4C-99FF-D470CC0D4AD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16420" xr2:uid="{6960E430-0BCE-2E41-B842-CC160AD8406D}"/>
   </bookViews>
@@ -389,7 +389,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
